--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Wnt1-Ryk.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Wnt1-Ryk.xlsx
@@ -543,16 +543,16 @@
         <v>0.5</v>
       </c>
       <c r="G2">
-        <v>0.1972485</v>
+        <v>0.0292345</v>
       </c>
       <c r="H2">
-        <v>0.394497</v>
+        <v>0.058469</v>
       </c>
       <c r="I2">
-        <v>0.8428540601518217</v>
+        <v>0.4428765120700495</v>
       </c>
       <c r="J2">
-        <v>0.7814529787550142</v>
+        <v>0.346386487911515</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>8.915438</v>
+        <v>12.3291175</v>
       </c>
       <c r="N2">
-        <v>17.830876</v>
+        <v>24.658235</v>
       </c>
       <c r="O2">
-        <v>0.1330966619879936</v>
+        <v>0.1991607983368005</v>
       </c>
       <c r="P2">
-        <v>0.1044454436141807</v>
+        <v>0.1614453197874725</v>
       </c>
       <c r="Q2">
-        <v>1.758556772343</v>
+        <v>0.36043558555375</v>
       </c>
       <c r="R2">
-        <v>7.034227089372</v>
+        <v>1.441742342215</v>
       </c>
       <c r="S2">
-        <v>0.112181061949235</v>
+        <v>0.08820363970848873</v>
       </c>
       <c r="T2">
-        <v>0.08161920302969042</v>
+        <v>0.05592247731093401</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>0.5</v>
       </c>
       <c r="G3">
-        <v>0.1972485</v>
+        <v>0.0292345</v>
       </c>
       <c r="H3">
-        <v>0.394497</v>
+        <v>0.058469</v>
       </c>
       <c r="I3">
-        <v>0.8428540601518217</v>
+        <v>0.4428765120700495</v>
       </c>
       <c r="J3">
-        <v>0.7814529787550142</v>
+        <v>0.346386487911515</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>86.10216500000001</v>
       </c>
       <c r="O3">
-        <v>0.42846691889729</v>
+        <v>0.4636226915653649</v>
       </c>
       <c r="P3">
-        <v>0.5043486825642435</v>
+        <v>0.563738303362699</v>
       </c>
       <c r="Q3">
-        <v>5.6611742976675</v>
+        <v>0.8390512475641667</v>
       </c>
       <c r="R3">
-        <v>33.967045786005</v>
+        <v>5.034307485385001</v>
       </c>
       <c r="S3">
-        <v>0.3611350822333222</v>
+        <v>0.2053276005569971</v>
       </c>
       <c r="T3">
-        <v>0.3941247803209951</v>
+        <v>0.1952713310030015</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,46 +667,46 @@
         <v>0.5</v>
       </c>
       <c r="G4">
-        <v>0.1972485</v>
+        <v>0.0292345</v>
       </c>
       <c r="H4">
-        <v>0.394497</v>
+        <v>0.058469</v>
       </c>
       <c r="I4">
-        <v>0.8428540601518217</v>
+        <v>0.4428765120700495</v>
       </c>
       <c r="J4">
-        <v>0.7814529787550142</v>
+        <v>0.346386487911515</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.2432513333333333</v>
+        <v>0.073231</v>
       </c>
       <c r="N4">
-        <v>0.729754</v>
+        <v>0.219693</v>
       </c>
       <c r="O4">
-        <v>0.003631446990130538</v>
+        <v>0.001182951206605196</v>
       </c>
       <c r="P4">
-        <v>0.004274578560202138</v>
+        <v>0.001438400057427841</v>
       </c>
       <c r="Q4">
-        <v>0.047980960623</v>
+        <v>0.0021408716695</v>
       </c>
       <c r="R4">
-        <v>0.287885763738</v>
+        <v>0.012845230017</v>
       </c>
       <c r="S4">
-        <v>0.003060779839857637</v>
+        <v>0.0005239013043303658</v>
       </c>
       <c r="T4">
-        <v>0.00334038214879228</v>
+        <v>0.0004982423441041513</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>0.5</v>
       </c>
       <c r="G5">
-        <v>0.1972485</v>
+        <v>0.0292345</v>
       </c>
       <c r="H5">
-        <v>0.394497</v>
+        <v>0.058469</v>
       </c>
       <c r="I5">
-        <v>0.8428540601518217</v>
+        <v>0.4428765120700495</v>
       </c>
       <c r="J5">
-        <v>0.7814529787550142</v>
+        <v>0.346386487911515</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>21.3190975</v>
+        <v>20.652629</v>
       </c>
       <c r="N5">
-        <v>42.638195</v>
+        <v>41.30525799999999</v>
       </c>
       <c r="O5">
-        <v>0.3182682347010409</v>
+        <v>0.3336162608064818</v>
       </c>
       <c r="P5">
-        <v>0.2497558275702743</v>
+        <v>0.2704386825218454</v>
       </c>
       <c r="Q5">
-        <v>4.205160003228749</v>
+        <v>0.6037692825004999</v>
       </c>
       <c r="R5">
-        <v>16.820640012915</v>
+        <v>2.415077130002</v>
       </c>
       <c r="S5">
-        <v>0.2682536738351252</v>
+        <v>0.1477508059558266</v>
       </c>
       <c r="T5">
-        <v>0.1951724354162146</v>
+        <v>0.09367630543415924</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,46 +791,46 @@
         <v>0.5</v>
       </c>
       <c r="G6">
-        <v>0.1972485</v>
+        <v>0.0292345</v>
       </c>
       <c r="H6">
-        <v>0.394497</v>
+        <v>0.058469</v>
       </c>
       <c r="I6">
-        <v>0.8428540601518217</v>
+        <v>0.4428765120700495</v>
       </c>
       <c r="J6">
-        <v>0.7814529787550142</v>
+        <v>0.346386487911515</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>7.535582333333333</v>
+        <v>0.05032066666666666</v>
       </c>
       <c r="N6">
-        <v>22.606747</v>
+        <v>0.150962</v>
       </c>
       <c r="O6">
-        <v>0.1124970926501157</v>
+        <v>0.0008128646795825703</v>
       </c>
       <c r="P6">
-        <v>0.1324203992607289</v>
+        <v>0.0009883963051595711</v>
       </c>
       <c r="Q6">
-        <v>1.4863823118765</v>
+        <v>0.001471099529666666</v>
       </c>
       <c r="R6">
-        <v>8.918293871258999</v>
+        <v>0.008826597177999999</v>
       </c>
       <c r="S6">
-        <v>0.09481863129542571</v>
+        <v>0.0003599986740784671</v>
       </c>
       <c r="T6">
-        <v>0.1034803154502249</v>
+        <v>0.0003423671248089419</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>0.5</v>
       </c>
       <c r="G7">
-        <v>0.1972485</v>
+        <v>0.0292345</v>
       </c>
       <c r="H7">
-        <v>0.394497</v>
+        <v>0.058469</v>
       </c>
       <c r="I7">
-        <v>0.8428540601518217</v>
+        <v>0.4428765120700495</v>
       </c>
       <c r="J7">
-        <v>0.7814529787550142</v>
+        <v>0.346386487911515</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.2705943333333333</v>
+        <v>0.09932299999999999</v>
       </c>
       <c r="N7">
-        <v>0.8117829999999999</v>
+        <v>0.297969</v>
       </c>
       <c r="O7">
-        <v>0.004039644773429317</v>
+        <v>0.001604433405165134</v>
       </c>
       <c r="P7">
-        <v>0.00475506843037047</v>
+        <v>0.001950897965395876</v>
       </c>
       <c r="Q7">
-        <v>0.05337432635849999</v>
+        <v>0.0029036582435</v>
       </c>
       <c r="R7">
-        <v>0.3202459581509999</v>
+        <v>0.017421949461</v>
       </c>
       <c r="S7">
-        <v>0.003404830998855986</v>
+        <v>0.0007105658703282069</v>
       </c>
       <c r="T7">
-        <v>0.003715862389096933</v>
+        <v>0.0006757646945071979</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>0.110328</v>
       </c>
       <c r="I8">
-        <v>0.1571459398481783</v>
+        <v>0.5571234879299505</v>
       </c>
       <c r="J8">
-        <v>0.2185470212449859</v>
+        <v>0.6536135120884849</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>8.915438</v>
+        <v>12.3291175</v>
       </c>
       <c r="N8">
-        <v>17.830876</v>
+        <v>24.658235</v>
       </c>
       <c r="O8">
-        <v>0.1330966619879936</v>
+        <v>0.1991607983368005</v>
       </c>
       <c r="P8">
-        <v>0.1044454436141807</v>
+        <v>0.1614453197874725</v>
       </c>
       <c r="Q8">
-        <v>0.327874147888</v>
+        <v>0.4534156251799999</v>
       </c>
       <c r="R8">
-        <v>1.967244887328</v>
+        <v>2.72049375108</v>
       </c>
       <c r="S8">
-        <v>0.02091560003875855</v>
+        <v>0.1109571586283118</v>
       </c>
       <c r="T8">
-        <v>0.02282624058449034</v>
+        <v>0.1055228424765385</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>0.110328</v>
       </c>
       <c r="I9">
-        <v>0.1571459398481783</v>
+        <v>0.5571234879299505</v>
       </c>
       <c r="J9">
-        <v>0.2185470212449859</v>
+        <v>0.6536135120884849</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>86.10216500000001</v>
       </c>
       <c r="O9">
-        <v>0.42846691889729</v>
+        <v>0.4636226915653649</v>
       </c>
       <c r="P9">
-        <v>0.5043486825642435</v>
+        <v>0.563738303362699</v>
       </c>
       <c r="Q9">
         <v>1.055497740013333</v>
@@ -1013,10 +1013,10 @@
         <v>9.49947966012</v>
       </c>
       <c r="S9">
-        <v>0.0673318366639678</v>
+        <v>0.2582950910083677</v>
       </c>
       <c r="T9">
-        <v>0.1102239022432484</v>
+        <v>0.3684669723596975</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,40 +1045,40 @@
         <v>0.110328</v>
       </c>
       <c r="I10">
-        <v>0.1571459398481783</v>
+        <v>0.5571234879299505</v>
       </c>
       <c r="J10">
-        <v>0.2185470212449859</v>
+        <v>0.6536135120884849</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.2432513333333333</v>
+        <v>0.073231</v>
       </c>
       <c r="N10">
-        <v>0.729754</v>
+        <v>0.219693</v>
       </c>
       <c r="O10">
-        <v>0.003631446990130538</v>
+        <v>0.001182951206605196</v>
       </c>
       <c r="P10">
-        <v>0.004274578560202138</v>
+        <v>0.001438400057427841</v>
       </c>
       <c r="Q10">
-        <v>0.008945811034666667</v>
+        <v>0.002693143256</v>
       </c>
       <c r="R10">
-        <v>0.080512299312</v>
+        <v>0.024238289304</v>
       </c>
       <c r="S10">
-        <v>0.0005706671502729015</v>
+        <v>0.0006590499022748305</v>
       </c>
       <c r="T10">
-        <v>0.0009341964114098578</v>
+        <v>0.0009401577133236896</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>0.110328</v>
       </c>
       <c r="I11">
-        <v>0.1571459398481783</v>
+        <v>0.5571234879299505</v>
       </c>
       <c r="J11">
-        <v>0.2185470212449859</v>
+        <v>0.6536135120884849</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>21.3190975</v>
+        <v>20.652629</v>
       </c>
       <c r="N11">
-        <v>42.638195</v>
+        <v>41.30525799999999</v>
       </c>
       <c r="O11">
-        <v>0.3182682347010409</v>
+        <v>0.3336162608064818</v>
       </c>
       <c r="P11">
-        <v>0.2497558275702743</v>
+        <v>0.2704386825218454</v>
       </c>
       <c r="Q11">
-        <v>0.7840311296599999</v>
+        <v>0.7595210841039999</v>
       </c>
       <c r="R11">
-        <v>4.70418677796</v>
+        <v>4.557126504623999</v>
       </c>
       <c r="S11">
-        <v>0.05001456086591565</v>
+        <v>0.1858654548506551</v>
       </c>
       <c r="T11">
-        <v>0.05458339215405977</v>
+        <v>0.1767623770876861</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,40 +1169,40 @@
         <v>0.110328</v>
       </c>
       <c r="I12">
-        <v>0.1571459398481783</v>
+        <v>0.5571234879299505</v>
       </c>
       <c r="J12">
-        <v>0.2185470212449859</v>
+        <v>0.6536135120884849</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>7.535582333333333</v>
+        <v>0.05032066666666666</v>
       </c>
       <c r="N12">
-        <v>22.606747</v>
+        <v>0.150962</v>
       </c>
       <c r="O12">
-        <v>0.1124970926501157</v>
+        <v>0.0008128646795825703</v>
       </c>
       <c r="P12">
-        <v>0.1324203992607289</v>
+        <v>0.0009883963051595711</v>
       </c>
       <c r="Q12">
-        <v>0.2771285758906666</v>
+        <v>0.001850592837333333</v>
       </c>
       <c r="R12">
-        <v>2.494157183016</v>
+        <v>0.016655335536</v>
       </c>
       <c r="S12">
-        <v>0.01767846135469002</v>
+        <v>0.0004528660055041032</v>
       </c>
       <c r="T12">
-        <v>0.02894008381050404</v>
+        <v>0.0006460291803506292</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>0.110328</v>
       </c>
       <c r="I13">
-        <v>0.1571459398481783</v>
+        <v>0.5571234879299505</v>
       </c>
       <c r="J13">
-        <v>0.2185470212449859</v>
+        <v>0.6536135120884849</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.2705943333333333</v>
+        <v>0.09932299999999999</v>
       </c>
       <c r="N13">
-        <v>0.8117829999999999</v>
+        <v>0.297969</v>
       </c>
       <c r="O13">
-        <v>0.004039644773429317</v>
+        <v>0.001604433405165134</v>
       </c>
       <c r="P13">
-        <v>0.00475506843037047</v>
+        <v>0.001950897965395876</v>
       </c>
       <c r="Q13">
-        <v>0.009951377202666666</v>
+        <v>0.003652702647999999</v>
       </c>
       <c r="R13">
-        <v>0.08956239482399998</v>
+        <v>0.03287432383199999</v>
       </c>
       <c r="S13">
-        <v>0.0006348137745733312</v>
+        <v>0.0008938675348369266</v>
       </c>
       <c r="T13">
-        <v>0.001039206041273537</v>
+        <v>0.001275133270888678</v>
       </c>
     </row>
   </sheetData>
